--- a/data/ParteI/s(4).xlsx
+++ b/data/ParteI/s(4).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\ParteI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\ParteI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3225E6-F457-4E9C-AF65-199FC5301FA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3876" yWindow="2580" windowWidth="16308" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2580" windowWidth="16305" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,15 +29,6 @@
     <t>Vel</t>
   </si>
   <si>
-    <t>Vas1</t>
-  </si>
-  <si>
-    <t>Vas2</t>
-  </si>
-  <si>
-    <t>Vas3</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -55,12 +45,21 @@
   </si>
   <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t>BackBrush</t>
+  </si>
+  <si>
+    <t>ForearmBrush</t>
+  </si>
+  <si>
+    <t>ForearmTactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,445 +386,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>200</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>200</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>200</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>200</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>200</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
